--- a/intern.xlsx
+++ b/intern.xlsx
@@ -131,6 +131,24 @@
   </x:si>
   <x:si>
     <x:t>867sdf78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aczvff@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t> asljhak</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-06-01T18:30:00.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4855</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dsfsfsdsf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>867sdfds</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -633,6 +651,41 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="A5" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/intern.xlsx
+++ b/intern.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39" count="39">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54" count="54">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -149,6 +149,33 @@
   </x:si>
   <x:si>
     <x:t>867sdfds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tulsi Kumar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tulsi@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t> Web develioper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sjdhgcxn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0000-00-00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>linked</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qwertyui</x:t>
+  </x:si>
+  <x:si>
+    <x:t>djkkhxjvfc</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -686,6 +713,41 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
+    <x:row r="6" spans="1:11">
+      <x:c r="A6" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/intern.xlsx
+++ b/intern.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54" count="54">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21" count="21">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -49,133 +49,34 @@
     <x:t>InstituteName</x:t>
   </x:si>
   <x:si>
-    <x:t>Rhythm jayee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jayeerythm8@gmail.co</x:t>
-  </x:si>
-  <x:si>
-    <x:t> Web developor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Frontend &amp; </x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020-06-11T18:30:00.000Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020-06-19T18:30:00.000Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Internshala</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123rj456</x:t>
+    <x:t>Arun Teltia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>acfsdzvff@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t> asljhak</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-07-02T18:30:00.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-07-17T18:30:00.000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dsfsfsdsf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>867s9875</x:t>
   </x:si>
   <x:si>
     <x:t>MAIT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Arun Teltia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>arun@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>     Worked for SFOLY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>iafshjh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020-05-31T18:30:00.000Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020-06-27T18:30:00.000Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55624</x:t>
-  </x:si>
-  <x:si>
-    <x:t>linkedin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121232113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sfwewefsvds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>acfsdzvff@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>  asljhak</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020-06-04T18:30:00.000Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020-06-18T18:30:00.000Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48787</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sdfds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>867sdf78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aczvff@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t> asljhak</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020-06-01T18:30:00.000Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4855</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dsfsfsdsf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>867sdfds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tulsi Kumar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tulsi@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t> Web develioper</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sjdhgcxn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0000-00-00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35236</x:t>
-  </x:si>
-  <x:si>
-    <x:t>linked</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qwertyui</x:t>
-  </x:si>
-  <x:si>
-    <x:t>djkkhxjvfc</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -575,7 +476,7 @@
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>11</x:v>
@@ -606,146 +507,6 @@
       </x:c>
       <x:c r="K2" s="0" t="s">
         <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:11">
-      <x:c r="A3" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="K3" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:11">
-      <x:c r="A4" s="0" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:11">
-      <x:c r="A5" s="0" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="K5" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:11">
-      <x:c r="A6" s="0" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="J6" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="K6" s="0" t="s">
-        <x:v>53</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
